--- a/Input_mod_positions_MQ.xlsx
+++ b/Input_mod_positions_MQ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brune\deamidation\Positional Analysis\Positional_Analysis_from_MQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F18E3FB-2538-49F6-B6F9-4513911DD8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C3B421-E772-41D4-86D8-A8A191178853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="264" yWindow="0" windowWidth="22776" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_mod_MQ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>protein_sequences</t>
   </si>
@@ -33,37 +33,31 @@
     <t>uniprot_ids</t>
   </si>
   <si>
-    <t>P02453</t>
-  </si>
-  <si>
-    <t>P04258</t>
-  </si>
-  <si>
-    <t>P02465</t>
-  </si>
-  <si>
-    <t>MFSFVDLRLLLLLAATALLTHGQEEGQEEGQEEDIPPVTCVQNGLRYHDRDVWKPVPCQICVCDNGNVLCDDVICDELKDCPNAKVPTDECCPVCPEGQESPTDQETTGVEGPKGDTGPRGPRGPAGPPGRDGIPGQPGLPGPPGPPGPPGPPGLGGNFAPQLSYGYDEKSTGISVPGPMGPSGPRGLPGPPGAPGPQGFQGPPGEPGEPGASGPMGPRGPPGPPGKNGDDGEAGKPGRPGERGPPGPQGARGLPGTAGLPGMKGHRGFSGLDGAKGDAGPAGPKGEPGSPGENGAPGQMGPRGLPGERGRPGAPGPAGARGNDGATGAAGPPGPTGPAGPPGFPGAVGAKGEGGPQGPRGSEGPQGVRGEPGPPGPAGAAGPAGNPGADGQPGAKGANGAPGIAGAPGFPGARGPSGPQGPSGPPGPKGNSGEPGAPGSKGDTGAKGEPGPTGIQGPPGPAGEEGKRGARGEPGPAGLPGPPGERGGPGSRGFPGADGVAGPKGPAGERGAPGPAGPKGSPGEAGRPGEAGLPGAKGLTGSPGSPGPDGKTGPPGPAGQDGRPGPPGPPGARGQAGVMGFPGPKGAAGEPGKAGERGVPGPPGAVGPAGKDGEAGAQGPPGPAGPAGERGEQGPAGSPGFQGLPGPAGPPGEAGKPGEQGVPGDLGAPGPSGARGERGFPGERGVQGPPGPAGPRGANGAPGNDGAKGDAGAPGAPGSQGAPGLQGMPGERGAAGLPGPKGDRGDAGPKGADGAPGKDGVRGLTGPIGPPGPAGAPGDKGEAGPSGPAGPTGARGAPGDRGEPGPPGPAGFAGPPGADGQPGAKGEPGDAGAKGDAGPPGPAGPAGPPGPIGNVGAPGPKGARGSAGPPGATGFPGAAGRVGPPGPSGNAGPPGPPGPAGKEGSKGPRGETGPAGRPGEVGPPGPPGPAGEKGAPGADGPAGAPGTPGPQGIAGQRGVVGLPGQRGERGFPGLPGPSGEPGKQGPSGASGERGPPGPMGPPGLAGPPGESGREGAPGAEGSPGRDGSPGAKGDRGETGPAGPPGAPGAPGAPGPVGPAGKSGDRGETGPAGPAGPIGPVGARGPAGPQGPRGDKGETGEQGDRGIKGHRGFSGLQGPPGPPGSPGEQGPSGASGPAGPRGPPGSAGSPGKDGLNGLPGPIGPPGPRGRTGDAGPAGPPGPPGPPGPPGPPSGGYDLSFLPQPPQEKAHDGGRYYRADDANVVRDRDLEVDTTLKSLSQQIENIRSPEGSRKNPARTCRDLKMCHSDWKSGEYWIDPNQGCNLDAIKVFCNMETGETCVYPTQPSVAQKNWYISKNPKEKRHVWYGESMTGGFQFEYGGQGSDPADVAIQLTFLRLMSTEASQNITYHCKNSVAYMDQQTGNLKKALLLQGSNEIEIRAEGNSRFTYSVTYDGCTSHTGAWGKTVIEYKTTKTSRLPIIDVAPLDVGAPDQEFGFDVGPACFL</t>
-  </si>
-  <si>
-    <t>EYEAYDVKSGVAGGGIAGYPGPAGPPGPPGPPGTSGHPGAPGAPGYQGPPGEPGQAGPAGPPGPPGAIGPSGKDGESGRPGRPGPRGFPGPPGMKGPAGMPGFPGMKGHRGFDGRNGEKGEPGAPGLKGENGVPGEDGAPGPMGPRGAPGERGRPGLPGAAGARGNDGARGSDGQPGPPGPPGTAGFPGSPGAKGEVGPAGSPGSSGAPGQRGEPGPQGHAGAPGPPGPPGSDGSPGGKGEMGPAGIPGAPGLIGARGPPGPPGTNGVPGQRGAAGEPGKNGAKGDPGPRGERGEAGSPGIAGPKGEDGKDGSPGEPGANGLPGAAGERGVPGFRGPAGANGLPGEKGPPGDRGGPGPAGPRGVAGEPGRNGLPGGPGLRGIPGSPGGPGSNGKPGPPGSQGETGRPGPPGSPGPRGQPGVMGFPGPKGNDGAPGKNGERGGPGGPGPQGPAGKNGETGPQGPPGPTGPSGDKGDTGPPGPQGLQGLPGTSGPPGENGKPGEPGPKGEAGAPGIPGGKGDSGAPGERGPPGAGGPPGPRGGAGPPGPEGGKGAAGPPGPPGSAGTPGLQGMPGERGGPGGPGPKGDKGEPGSSGVDGAPGKDGPRGPTGPIGPPGPAGQPGDKGESGAPGVPGIAGPRGGPGERGEQGPPGPAGFPGAPGQNGEPGAKGERGAPGEKGEGGPPGAAGPAGGSGPAGPPGPQGVKGERGSPGGPGAAGFPGGRGPPGPPGSNGNPGPPGSSGAPGKDGPPGPPGSNGAPGSPGISGPKGDSGPPGERGAPGPQGPPGAPGPLGIAGLTGARGLAGPPGMPGARGSPGPQGIKGENGKPGPSGQNGERGPPGPQGLPGLAGTAGEPGRDGNPGSDGLPGRDGAPGAKGDRGENGSPGAPGAPGHPGPPGPVGPAGKSGDRGETGPAGPSGAPGPAGSRGPPGPQGPRGDKGETGERGAMGIKGHRGFPGNPGAPGSPGPAGHQGAVGSPGPAGPRGPVGPSGPPGKDGASGHPGPIGPPGPRGNRGERGSEGSPGHPGQPGPPGPPGAPGPCCGAGGVAAI</t>
-  </si>
-  <si>
-    <t>MLSFVDTRTLLLLAVTSCLATCQSLQEATARKGPSGDRGPRGERGPPGPPGRDGDDGIPGPPGPPGPPGPPGLGGNFAAQFDAKGGGPGPMGLMGPRGPPGASGAPGPQGFQGPPGEPGEPGQTGPAGARGPPGPPGKAGEDGHPGKPGRPGERGVVGPQGARGFPGTPGLPGFKGIRGHNGLDGLKGQPGAPGVKGEPGAPGENGTPGQTGARGLPGERGRVGAPGPAGARGSDGSVGPVGPAGPIGSAGPPGFPGAPGPKGELGPVGNPGPAGPAGPRGEVGLPGLSGPVGPPGNPGANGLPGAKGAAGLPGVAGAPGLPGPRGIPGPVGAAGATGARGLVGEPGPAGSKGESGNKGEPGAVGQPGPPGPSGEEGKRGSTGEIGPAGPPGPPGLRGNPGSRGLPGADGRAGVMGPAGSRGATGPAGVRGPNGDSGRPGEPGLMGPRGFPGSPGNIGPAGKEGPVGLPGIDGRPGPIGPAGARGEPGNIGFPGPKGPSGDPGKAGEKGHAGLAGARGAPGPDGNNGAQGPPGLQGVQGGKGEQGPAGPPGFQGLPGPAGTAGEAGKPGERGIPGEFGLPGPAGARGERGPPGESGAAGPTGPIGSRGPSGPPGPDGNKGEPGVVGAPGTAGPSGPSGLPGERGAAGIPGGKGEKGETGLRGDIGSPGRDGARGAPGAIGAPGPAGANGDRGEAGPAGPAGPAGPRGSPGERGEVGPAGPNGFAGPAGAAGQPGAKGERGTKGPKGENGPVGPTGPVGAAGPSGPNGPPGPAGSRGDGGPPGATGFPGAAGRTGPPGPSGISGPPGPPGPAGKEGLRGPRGDQGPVGRSGETGASGPPGFVGEKGPSGEPGTAGPPGTPGPQGLLGAPGFLGLPGSRGERGLPGVAGSVGEPGPLGIAGPPGARGPPGNVGNPGVNGAPGEAGRDGNPGNDGPPGRDGQPGHKGERGYPGNAGPVGAAGAPGPQGPVGPVGKHGNRGEPGPAGAVGPAGAVGPRGPSGPQGIRGDKGEPGDKGPRGLPGLKGHNGLQGLPGLAGHHGDQGAPGAVGPAGPRGPAGPSGPAGKDGRIGQPGAVGPAGIRGSQGSQGPAGPPGPPGPPGPPGPSGGGYEFGFDGDFYRADQPRSPTSLRPKDYEVDATLKSLNNQIETLLTPEGSRKNPARTCRDLRLSHPEWSSGYYWIDPNQGCTMDAIKVYCDFSTGETCIRAQPEDIPVKNWYRNSKAKKHVWVGETINGGTQFEYNVEGVTTKEMATQLAFMRLLANHASQNITYHCKNSIAYMDEETGNLKKAVILQGSNDVELVAEGNSRFTYTVLVDGCSKKTNEWQKTIIEYKTNKPSRLPILDIAPLDIGGADQEIRLNIGPVCFK</t>
-  </si>
-  <si>
-    <t>modification_labels</t>
-  </si>
-  <si>
-    <t>N(Deamidation (NQ))</t>
-  </si>
-  <si>
-    <t>Q(Deamidation (NQ))</t>
-  </si>
-  <si>
-    <t>M(Oxidation (M))</t>
-  </si>
-  <si>
-    <t>P(Hydroxyproline)</t>
+    <t>MKLLILTCLVAVALARPKHPIKHQGLPQEVLNENLLRFFVAPFPEVFGKEKVNELSKDIGSESTEDQAMEDIKQMEAESISSSEEIVPNSVEQKHIQKEDVPSERYLGYLEQLLRLKKYKVPQLEIVPNSAEERLHSMKEGIHAQQKEPMIGVNQELAYFYPELFRQFYQLDAYPSGAWYYVPLGTQYTDAPSFSDIPNPIGSENSEKTTMPLW</t>
+  </si>
+  <si>
+    <t>MMKSFFLVVTILALTLPFLGAQEQNQEQPIRCEKDERFFSDKIAKYIPIQYVLSRYPSYGLNYYQQKPVALINNQFLPYPYYAKPAAVRSPAQILQWQVLSNTVPAKSCQAQPTTMARHPHPHLSFMAIPPKKNQDKTEIPTINTIASGEPTSTPTTEAVESTVATLEDSPEVIESPPEINTVQVTSTAV</t>
+  </si>
+  <si>
+    <t>MKVLILACLVALALARELEELNVPGEIVESLSSSEESITRINKKIEKFQSEEQQQTEDELQDKIHPFAQTQSLVYPFPGPIPNSLPQNIPPLTQTPVVVPPFLQPEVMGVSKVKEAMAPKHKEMPFPKYPVEPFTESQSLTLTDVENLHLPLPLLQSWMHQPHQPLPPTVMFPPQSVLSLSQSKVLPVPQKAVPYPQRDMPIQAFLLYQEPVLGPVRGPFPIIV</t>
+  </si>
+  <si>
+    <t>MKFFIFTCLLAVALAKNTMEHVSSSEESIISQETYKQEKNMAINPSKENLCSTFCKEVVRNANEEEYSIGSSSEESAEVATEEVKITVDDKHYQKALNEINQFYQKFPQYLQYLYQGPIVLNPWDQVKRNAVPITPTLNREQLSTSEENSKKTVDMESTEVFTKKTKLTEEEKNRLNFLKKISQRYQKFALPQYLKTVYQHQKAMKPWIQPKTKVIPYVRYL</t>
+  </si>
+  <si>
+    <t>P02663</t>
+  </si>
+  <si>
+    <t>P02662</t>
+  </si>
+  <si>
+    <t>P02666</t>
+  </si>
+  <si>
+    <t>P02668</t>
+  </si>
+  <si>
+    <t>T1T0C1</t>
   </si>
 </sst>
 </file>
@@ -444,15 +438,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43EB69B-F61A-4EE2-934D-080EDEEFFB59}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="2" max="2" width="111.21875" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -462,59 +455,58 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Input_mod_positions_MQ.xlsx
+++ b/Input_mod_positions_MQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brune\deamidation\Positional Analysis\Positional_Analysis_from_MQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brune\Desktop\backbone_cleav_analyzer\backbone_cleav_analyzer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C3B421-E772-41D4-86D8-A8A191178853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0BCDFC-7451-46B6-BCFE-40710680EFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="0" windowWidth="22776" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_mod_MQ" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>protein_sequences</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>P02668</t>
-  </si>
-  <si>
-    <t>T1T0C1</t>
   </si>
 </sst>
 </file>
@@ -436,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43EB69B-F61A-4EE2-934D-080EDEEFFB59}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,14 +497,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
